--- a/COMET-Farm_API_File_Specification.xlsx
+++ b/COMET-Farm_API_File_Specification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\CFARM\api\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{012C8014-176A-423D-8585-672A36AED781}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D3A073-3E95-4175-B66F-D0296BDD939F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21360" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12023" uniqueCount="2500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12024" uniqueCount="2502">
   <si>
     <t>&lt;Day cometEmailId="mark.easter@colostate.edu"&gt;</t>
   </si>
@@ -7536,6 +7536,12 @@
   </si>
   <si>
     <t>Yes = woody perennial crops are pruned.</t>
+  </si>
+  <si>
+    <t>Point, Polygon, or Multipolygon definitions are acceptable</t>
+  </si>
+  <si>
+    <t>option is "1" or "2", a negative sign (e.g. "-2") indicates a cover crop.</t>
   </si>
 </sst>
 </file>
@@ -62403,15 +62409,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="59.7265625" customWidth="1"/>
+    <col min="3" max="3" width="129.08984375" customWidth="1"/>
     <col min="4" max="4" width="24.26953125" customWidth="1"/>
     <col min="5" max="5" width="23.54296875" customWidth="1"/>
     <col min="6" max="6" width="69.54296875" customWidth="1"/>
@@ -62429,8 +62435,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>146</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2500</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -62618,7 +62627,7 @@
         <v>109</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>234</v>
+        <v>2501</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -70370,7 +70379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EAC587-F587-4216-99DA-E66EA20081DA}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/COMET-Farm_API_File_Specification.xlsx
+++ b/COMET-Farm_API_File_Specification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\CFARM\api\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D3A073-3E95-4175-B66F-D0296BDD939F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86D9F01-E9A9-4B4A-B0FE-CC3A70EBA7E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21360" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12024" uniqueCount="2502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12043" uniqueCount="2505">
   <si>
     <t>&lt;Day cometEmailId="mark.easter@colostate.edu"&gt;</t>
   </si>
@@ -7542,6 +7542,15 @@
   </si>
   <si>
     <t>option is "1" or "2", a negative sign (e.g. "-2") indicates a cover crop.</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Seasonal Cover Crop?</t>
+  </si>
+  <si>
+    <t>Austrian Winter Pea</t>
   </si>
 </sst>
 </file>
@@ -62409,8 +62418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -70377,11 +70386,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EAC587-F587-4216-99DA-E66EA20081DA}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -70389,10 +70398,11 @@
     <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="27.54296875" customWidth="1"/>
     <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="78.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="78.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2432</v>
       </c>
@@ -70406,10 +70416,13 @@
         <v>2464</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>2503</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2433</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -70423,7 +70436,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>205</v>
       </c>
@@ -70437,7 +70450,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>304</v>
       </c>
@@ -70451,7 +70464,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>305</v>
       </c>
@@ -70465,7 +70478,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -70479,7 +70492,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>199</v>
       </c>
@@ -70492,8 +70505,11 @@
       <c r="D7" t="s">
         <v>2469</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>307</v>
       </c>
@@ -70506,8 +70522,11 @@
       <c r="D8" t="s">
         <v>2469</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>198</v>
       </c>
@@ -70520,8 +70539,11 @@
       <c r="D9" t="s">
         <v>2469</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -70535,26 +70557,29 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>309</v>
+        <v>2504</v>
       </c>
       <c r="B11" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="C11" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D11" t="s">
         <v>2469</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>309</v>
       </c>
       <c r="B12" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="C12" t="s">
         <v>2463</v>
@@ -70563,12 +70588,12 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>310</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="C13" t="s">
         <v>2463</v>
@@ -70577,9 +70602,9 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B14" t="s">
         <v>2458</v>
@@ -70591,23 +70616,23 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>311</v>
       </c>
       <c r="B15" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="C15" t="s">
         <v>2463</v>
       </c>
       <c r="D15" t="s">
-        <v>2465</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
         <v>2460</v>
@@ -70619,23 +70644,23 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>312</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="C17" t="s">
         <v>2463</v>
       </c>
       <c r="D17" t="s">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B18" t="s">
         <v>2458</v>
@@ -70647,9 +70672,9 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B19" t="s">
         <v>2458</v>
@@ -70661,23 +70686,23 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>2466</v>
+        <v>314</v>
       </c>
       <c r="B20" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="C20" t="s">
         <v>2463</v>
       </c>
       <c r="D20" t="s">
-        <v>2465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>2466</v>
       </c>
       <c r="B21" t="s">
         <v>2460</v>
@@ -70689,9 +70714,9 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="B22" t="s">
         <v>2460</v>
@@ -70700,12 +70725,12 @@
         <v>2463</v>
       </c>
       <c r="D22" t="s">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>315</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s">
         <v>2460</v>
@@ -70716,13 +70741,16 @@
       <c r="D23" t="s">
         <v>2469</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B24" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="C24" t="s">
         <v>2463</v>
@@ -70731,37 +70759,40 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>316</v>
       </c>
       <c r="B25" t="s">
         <v>2458</v>
       </c>
       <c r="C25" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="D25" t="s">
         <v>2469</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2469</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>171</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2460</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2463</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>151</v>
       </c>
       <c r="B27" t="s">
         <v>2460</v>
@@ -70770,12 +70801,15 @@
         <v>2463</v>
       </c>
       <c r="D27" t="s">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2468</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
         <v>2460</v>
@@ -70784,40 +70818,40 @@
         <v>2463</v>
       </c>
       <c r="D28" t="s">
-        <v>2465</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="C29" t="s">
         <v>2463</v>
       </c>
       <c r="D29" t="s">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>317</v>
       </c>
       <c r="B30" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="C30" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="D30" t="s">
         <v>2469</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>2467</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s">
         <v>2460</v>
@@ -70829,26 +70863,26 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>318</v>
+        <v>2467</v>
       </c>
       <c r="B32" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="C32" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D32" t="s">
         <v>2469</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>217</v>
+        <v>318</v>
       </c>
       <c r="B33" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="C33" t="s">
         <v>2463</v>
@@ -70857,12 +70891,12 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="B34" t="s">
-        <v>175</v>
+        <v>2459</v>
       </c>
       <c r="C34" t="s">
         <v>2463</v>
@@ -70871,12 +70905,12 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="B35" t="s">
-        <v>2460</v>
+        <v>175</v>
       </c>
       <c r="C35" t="s">
         <v>2463</v>
@@ -70885,12 +70919,12 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>319</v>
+        <v>201</v>
       </c>
       <c r="B36" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="C36" t="s">
         <v>2463</v>
@@ -70898,13 +70932,16 @@
       <c r="D36" t="s">
         <v>2469</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>206</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="C37" t="s">
         <v>2463</v>
@@ -70913,9 +70950,9 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B38" t="s">
         <v>2459</v>
@@ -70927,9 +70964,9 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B39" t="s">
         <v>2459</v>
@@ -70941,9 +70978,9 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B40" t="s">
         <v>2459</v>
@@ -70955,9 +70992,9 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B41" t="s">
         <v>2459</v>
@@ -70969,9 +71006,9 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B42" t="s">
         <v>2459</v>
@@ -70983,9 +71020,9 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B43" t="s">
         <v>2459</v>
@@ -70997,12 +71034,12 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="B44" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="C44" t="s">
         <v>2463</v>
@@ -71011,37 +71048,37 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s">
         <v>2458</v>
       </c>
       <c r="C45" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="D45" t="s">
         <v>2469</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>320</v>
+        <v>177</v>
       </c>
       <c r="B46" t="s">
         <v>2458</v>
       </c>
       <c r="C46" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D46" t="s">
         <v>2469</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B47" t="s">
         <v>2458</v>
@@ -71053,9 +71090,9 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B48" t="s">
         <v>2458</v>
@@ -71067,9 +71104,9 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B49" t="s">
         <v>2458</v>
@@ -71081,12 +71118,12 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>2435</v>
+        <v>323</v>
       </c>
       <c r="B50" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="C50" t="s">
         <v>2463</v>
@@ -71095,23 +71132,23 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>178</v>
+        <v>2435</v>
       </c>
       <c r="B51" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="C51" t="s">
         <v>2463</v>
       </c>
       <c r="D51" t="s">
-        <v>2465</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B52" t="s">
         <v>2460</v>
@@ -71123,9 +71160,9 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B53" t="s">
         <v>2460</v>
@@ -71137,26 +71174,26 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>324</v>
+        <v>179</v>
       </c>
       <c r="B54" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="C54" t="s">
         <v>2463</v>
       </c>
       <c r="D54" t="s">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>181</v>
+        <v>324</v>
       </c>
       <c r="B55" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="C55" t="s">
         <v>2463</v>
@@ -71165,12 +71202,12 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>325</v>
+        <v>181</v>
       </c>
       <c r="B56" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="C56" t="s">
         <v>2463</v>
@@ -71178,13 +71215,16 @@
       <c r="D56" t="s">
         <v>2469</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E56" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>182</v>
+        <v>325</v>
       </c>
       <c r="B57" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="C57" t="s">
         <v>2463</v>
@@ -71193,9 +71233,9 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="B58" t="s">
         <v>2460</v>
@@ -71207,12 +71247,12 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>2430</v>
+        <v>202</v>
       </c>
       <c r="B59" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="C59" t="s">
         <v>2463</v>
@@ -71220,10 +71260,13 @@
       <c r="D59" t="s">
         <v>2469</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E59" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>214</v>
+        <v>2430</v>
       </c>
       <c r="B60" t="s">
         <v>2459</v>
@@ -71235,12 +71278,12 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>326</v>
+        <v>214</v>
       </c>
       <c r="B61" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="C61" t="s">
         <v>2463</v>
@@ -71249,12 +71292,12 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>2434</v>
+        <v>326</v>
       </c>
       <c r="B62" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="C62" t="s">
         <v>2463</v>
@@ -71263,82 +71306,82 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>2434</v>
       </c>
       <c r="B63" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="C63" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="D63" t="s">
         <v>2469</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="B64" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="C64" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D64" t="s">
         <v>2469</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="B65" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="C65" t="s">
         <v>2463</v>
       </c>
       <c r="D65" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2463</v>
+      </c>
+      <c r="D66" t="s">
         <v>2465</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>327</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>2458</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>2462</v>
-      </c>
-      <c r="D66" t="s">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>185</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2460</v>
-      </c>
-      <c r="C67" t="s">
-        <v>2463</v>
       </c>
       <c r="D67" t="s">
         <v>2469</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>328</v>
+        <v>185</v>
       </c>
       <c r="B68" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="C68" t="s">
         <v>2463</v>
@@ -71347,9 +71390,9 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>186</v>
+        <v>328</v>
       </c>
       <c r="B69" t="s">
         <v>2458</v>
@@ -71361,9 +71404,9 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>329</v>
+        <v>186</v>
       </c>
       <c r="B70" t="s">
         <v>2458</v>
@@ -71375,9 +71418,9 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B71" t="s">
         <v>2458</v>
@@ -71389,23 +71432,23 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>187</v>
+        <v>330</v>
       </c>
       <c r="B72" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="C72" t="s">
         <v>2463</v>
       </c>
       <c r="D72" t="s">
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B73" t="s">
         <v>2460</v>
@@ -71414,40 +71457,43 @@
         <v>2463</v>
       </c>
       <c r="D73" t="s">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2468</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B74" t="s">
         <v>2460</v>
       </c>
       <c r="C74" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="D74" t="s">
         <v>2469</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B75" t="s">
         <v>2460</v>
       </c>
       <c r="C75" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D75" t="s">
         <v>2469</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B76" t="s">
         <v>2460</v>
@@ -71456,12 +71502,12 @@
         <v>2463</v>
       </c>
       <c r="D76" t="s">
-        <v>2465</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B77" t="s">
         <v>2460</v>
@@ -71470,12 +71516,12 @@
         <v>2463</v>
       </c>
       <c r="D77" t="s">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B78" t="s">
         <v>2460</v>
@@ -71487,12 +71533,12 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B79" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="C79" t="s">
         <v>2463</v>
@@ -71501,12 +71547,12 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>2436</v>
+        <v>194</v>
       </c>
       <c r="B80" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="C80" t="s">
         <v>2463</v>
@@ -71515,12 +71561,12 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>331</v>
+        <v>2436</v>
       </c>
       <c r="B81" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="C81" t="s">
         <v>2463</v>
@@ -71529,23 +71575,23 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>195</v>
+        <v>331</v>
       </c>
       <c r="B82" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="C82" t="s">
         <v>2463</v>
       </c>
       <c r="D82" t="s">
-        <v>2465</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B83" t="s">
         <v>2460</v>
@@ -71557,37 +71603,40 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B84" t="s">
         <v>2460</v>
       </c>
       <c r="C84" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="D84" t="s">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B85" t="s">
         <v>2460</v>
       </c>
       <c r="C85" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D85" t="s">
         <v>2469</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E85" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B86" t="s">
         <v>2460</v>
@@ -71597,6 +71646,26 @@
       </c>
       <c r="D86" t="s">
         <v>2469</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>197</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2463</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2469</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2502</v>
       </c>
     </row>
   </sheetData>
